--- a/background_docs/Feedback.xlsx
+++ b/background_docs/Feedback.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucabmlj_ucl_ac_uk/Documents/1.1 - COMP0022 (Database and Information Management Systems)/3 - Coursework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{1108197A-4096-4137-8DAC-543730898635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D9E48C8-EC09-47CC-9275-1D8CDA6C1CB4}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{1108197A-4096-4137-8DAC-543730898635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{403E0900-880F-422A-B193-C3C6791E4E79}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{FE549BFD-FFA5-422E-A22F-B04B4B843849}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>Req 1</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Firefox calendar? JavaScript</t>
+  </si>
+  <si>
+    <t>Watchlist link broken?</t>
   </si>
 </sst>
 </file>
@@ -900,6 +903,9 @@
       <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E19" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C20" s="7" t="s">

--- a/background_docs/Feedback.xlsx
+++ b/background_docs/Feedback.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucabmlj_ucl_ac_uk/Documents/1.1 - COMP0022 (Database and Information Management Systems)/3 - Coursework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\COMP0022_Coursework\background_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{1108197A-4096-4137-8DAC-543730898635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{403E0900-880F-422A-B193-C3C6791E4E79}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308C9C75-B82D-4762-B84B-487792628A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{FE549BFD-FFA5-422E-A22F-B04B4B843849}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Req 1</t>
   </si>
@@ -54,179 +54,257 @@
     <t>Req 6</t>
   </si>
   <si>
-    <t>Search 'space'</t>
-  </si>
-  <si>
-    <t>Apply spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seller username </t>
-  </si>
-  <si>
-    <t>Icons/colours/bold/italic etc.</t>
-  </si>
-  <si>
-    <t>Emails unique?</t>
-  </si>
-  <si>
-    <t>Seller username</t>
-  </si>
-  <si>
-    <t>Start in future not in listings</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Active (reserve price not yet met)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Completed (sold)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Completed (unsold)</t>
-  </si>
-  <si>
-    <t>No categories?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order by </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Price (low to high)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Price (high to low)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Active</t>
-  </si>
-  <si>
-    <t>Order by</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Number of bidders (low to high)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Number of bidders (high to low)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Number of watchers (high to low)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Number of watchers (low to high)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">   End date (soonest to latest)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   End date (latest to soonest)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   List date (oldest to newest)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   List date (newest to oldest)</t>
-  </si>
-  <si>
-    <t>Titles getting cut off - desc poss too</t>
-  </si>
-  <si>
-    <t>Reserve price logic - no RP, still there</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Scheduled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Completed (won)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Completed (lost)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Active (winning)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Active (losing)</t>
-  </si>
-  <si>
-    <t>Current price?</t>
-  </si>
-  <si>
-    <t>"You"/"You won!"</t>
-  </si>
-  <si>
     <t>Pages?</t>
   </si>
   <si>
-    <t>Start in future redirect to homepage (if not the seller)</t>
-  </si>
-  <si>
-    <t>Colour if won/icon (e.g. star)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Completed</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+    <t>Email link broken</t>
+  </si>
+  <si>
+    <t>Receive 'notifications' explanation</t>
+  </si>
+  <si>
+    <t>Apply spacing?</t>
+  </si>
+  <si>
+    <t>Spacing on 'statuses'</t>
+  </si>
+  <si>
+    <t>Scheduled - 'starts in' in non-green/yellow</t>
+  </si>
+  <si>
+    <t>Slightly too low on page</t>
+  </si>
+  <si>
+    <t>Separation between filters + results? (font size, line separator, etc.)</t>
+  </si>
+  <si>
+    <t>'Please lengthen this' on title too</t>
+  </si>
+  <si>
+    <t>Slow to process some bids?</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>v1 deadline</t>
+  </si>
+  <si>
+    <t>TO DO:</t>
+  </si>
+  <si>
+    <t>Dependencies</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Active (reserve price met)</t>
-    </r>
-  </si>
-  <si>
-    <t>Remove from watchlist next to 'view item'</t>
-  </si>
-  <si>
-    <t>Req 6 - you might also be interested in…</t>
-  </si>
-  <si>
-    <t>Our top 10 picks for you…</t>
-  </si>
-  <si>
-    <t>Searching not live?</t>
-  </si>
-  <si>
-    <t>Separation between filters + results?</t>
-  </si>
-  <si>
-    <t>Email?</t>
-  </si>
-  <si>
-    <t>Card formatting - title &amp; category?</t>
-  </si>
-  <si>
-    <t>Firefox calendar? JavaScript</t>
-  </si>
-  <si>
-    <t>Watchlist link broken?</t>
+      <t>Report</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Matt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Video</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Mehdi, Albert, Dimi</t>
+    </r>
+  </si>
+  <si>
+    <t>Content ideas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PDF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - DB-centric; 'queries' &amp; 'other things' - defined in document</t>
+    </r>
+  </si>
+  <si>
+    <t>None - unless queries aren't finished?</t>
+  </si>
+  <si>
+    <t>Need list of key details* to include by req (for summary slide and for video)
+Order this list into a 'walkthrough'  to show all of these; 5-8 mins *total*!
+Need data to illustrate all of this (in script or local?) - overlap between reqs here</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PPT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> including:
+- Cover slide w/ freeBay logo + UCL logo; our names?; voiceover introduction?
+- Per requirement:
+1. (Slide 1) Summary slide including req description from document + key details* of our approach as a bulletpoint list covering:
+    - queries/use of functions (i.e. database side of things... if useful)
+    - data validation
+    - client-side design
+    - etc.
+2. (Slide 2) Pre-recorded screen-capture video of walkthrough (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FlashBack Express</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+- Separately record voiceover and animations for Slide 1s, then include slide transitions and export to mp4
+- Compress using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Handbrake </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp; upload to YouTube (unlisted)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Share final link with Matt for report</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thursday night</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Friday call)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Monday</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>LAMP issue</t>
+  </si>
+  <si>
+    <t>If didn't sell, show start price</t>
+  </si>
+  <si>
+    <t>No results found info</t>
+  </si>
+  <si>
+    <t>Email notifications on end</t>
+  </si>
+  <si>
+    <t>Active (will sell)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +362,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -293,7 +386,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -301,11 +394,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -316,6 +424,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,18 +770,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800FD09C-B86C-495E-B41D-FB668354CECC}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="2" width="31.7265625" customWidth="1"/>
-    <col min="3" max="3" width="32.54296875" customWidth="1"/>
-    <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="5" max="5" width="39.08984375" customWidth="1"/>
-    <col min="6" max="6" width="30.6328125" customWidth="1"/>
+    <col min="2" max="2" width="40.90625" customWidth="1"/>
+    <col min="3" max="3" width="59.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" customWidth="1"/>
+    <col min="6" max="6" width="34.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -665,308 +805,168 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" s="16" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="236.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>23</v>
+      <c r="D15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C24" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C28" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C29" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C19" s="7"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C20" s="7"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C28" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/background_docs/Feedback.xlsx
+++ b/background_docs/Feedback.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\COMP0022_Coursework\background_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308C9C75-B82D-4762-B84B-487792628A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1DB374-ADC9-41D8-8E03-58FB0761658C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{FE549BFD-FFA5-422E-A22F-B04B4B843849}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Req 1</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Pages?</t>
   </si>
   <si>
-    <t>Email link broken</t>
-  </si>
-  <si>
     <t>Receive 'notifications' explanation</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
   </si>
   <si>
     <t>'Please lengthen this' on title too</t>
-  </si>
-  <si>
-    <t>Slow to process some bids?</t>
   </si>
   <si>
     <t>Task</t>
@@ -285,19 +279,31 @@
     </r>
   </si>
   <si>
-    <t>LAMP issue</t>
-  </si>
-  <si>
-    <t>If didn't sell, show start price</t>
-  </si>
-  <si>
     <t>No results found info</t>
   </si>
   <si>
     <t>Email notifications on end</t>
   </si>
   <si>
-    <t>Active (will sell)</t>
+    <t>"Auction won by…"/Current highest bidder…</t>
+  </si>
+  <si>
+    <t>Show Active</t>
+  </si>
+  <si>
+    <t>Show Scheduled</t>
+  </si>
+  <si>
+    <t>Show Active (Will sell)</t>
+  </si>
+  <si>
+    <t>Show Active (Might not sell)</t>
+  </si>
+  <si>
+    <t>Show Completed (Sold)</t>
+  </si>
+  <si>
+    <t>Show Completed (Unsold)</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -422,7 +428,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -806,69 +811,60 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="s">
-        <v>14</v>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>33</v>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
@@ -887,52 +883,52 @@
       <c r="B12" s="5"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6" s="16" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:6" s="15" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="C14" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="15" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="236.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="20" t="s">
+      <c r="C15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="236.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -940,25 +936,49 @@
       <c r="D16" s="6"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
       <c r="C19" s="7"/>
       <c r="D19" s="1"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
       <c r="C20" s="7"/>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C24" s="4"/>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C28" s="3"/>
     </row>
   </sheetData>
